--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col8a1</t>
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H2">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I2">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J2">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N2">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O2">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P2">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q2">
-        <v>289.0802646605715</v>
+        <v>193.4240543330915</v>
       </c>
       <c r="R2">
-        <v>2601.722381945143</v>
+        <v>1740.816488997824</v>
       </c>
       <c r="S2">
-        <v>0.01582215927827739</v>
+        <v>0.03009042556232265</v>
       </c>
       <c r="T2">
-        <v>0.01897549547804501</v>
+        <v>0.03194506471342728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H3">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I3">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J3">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P3">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q3">
-        <v>38.986442585224</v>
+        <v>50.267317012376</v>
       </c>
       <c r="R3">
-        <v>350.877983267016</v>
+        <v>452.405853111384</v>
       </c>
       <c r="S3">
-        <v>0.002133835407273878</v>
+        <v>0.007819942385106965</v>
       </c>
       <c r="T3">
-        <v>0.002559106087195586</v>
+        <v>0.008301928632751195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H4">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I4">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J4">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N4">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O4">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P4">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q4">
-        <v>2.035790274702889</v>
+        <v>3.292818955061778</v>
       </c>
       <c r="R4">
-        <v>18.322112472326</v>
+        <v>29.635370595556</v>
       </c>
       <c r="S4">
-        <v>0.0001114244101766609</v>
+        <v>0.0005122544039267416</v>
       </c>
       <c r="T4">
-        <v>0.0001336311532619873</v>
+        <v>0.0005438274726053677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H5">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I5">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J5">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N5">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O5">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P5">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q5">
-        <v>291.7174125480101</v>
+        <v>36.54777576000133</v>
       </c>
       <c r="R5">
-        <v>1750.304475288061</v>
+        <v>219.286654560008</v>
       </c>
       <c r="S5">
-        <v>0.01596649764729203</v>
+        <v>0.005685632688067556</v>
       </c>
       <c r="T5">
-        <v>0.01276573353349075</v>
+        <v>0.004024046425906289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.656903666666667</v>
+        <v>6.004396333333333</v>
       </c>
       <c r="H6">
-        <v>13.970711</v>
+        <v>18.013189</v>
       </c>
       <c r="I6">
-        <v>0.03472688986918189</v>
+        <v>0.04417073859117263</v>
       </c>
       <c r="J6">
-        <v>0.03526504803992261</v>
+        <v>0.04488120200290098</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N6">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O6">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P6">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q6">
-        <v>12.66103135420867</v>
+        <v>0.4016500824602222</v>
       </c>
       <c r="R6">
-        <v>113.949282187878</v>
+        <v>3.614850742142</v>
       </c>
       <c r="S6">
-        <v>0.0006929731261619276</v>
+        <v>6.248355174872577E-05</v>
       </c>
       <c r="T6">
-        <v>0.0008310817879292644</v>
+        <v>6.633475821083584E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>369.913818</v>
       </c>
       <c r="I7">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J7">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N7">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O7">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P7">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q7">
-        <v>7654.212044687092</v>
+        <v>3972.102354080298</v>
       </c>
       <c r="R7">
-        <v>68887.90840218384</v>
+        <v>35748.92118672268</v>
       </c>
       <c r="S7">
-        <v>0.4189361119582041</v>
+        <v>0.6179285747239741</v>
       </c>
       <c r="T7">
-        <v>0.5024295456920815</v>
+        <v>0.6560149263076606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>369.913818</v>
       </c>
       <c r="I8">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J8">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.115256</v>
       </c>
       <c r="O8">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P8">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q8">
         <v>1032.275581889712</v>
@@ -948,10 +948,10 @@
         <v>9290.480237007409</v>
       </c>
       <c r="S8">
-        <v>0.05649928643490406</v>
+        <v>0.1605881526150058</v>
       </c>
       <c r="T8">
-        <v>0.06775952228784636</v>
+        <v>0.1704860875719738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>369.913818</v>
       </c>
       <c r="I9">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J9">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N9">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O9">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P9">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q9">
-        <v>53.90326613746533</v>
+        <v>67.62041033654134</v>
       </c>
       <c r="R9">
-        <v>485.129395237188</v>
+        <v>608.5836930288721</v>
       </c>
       <c r="S9">
-        <v>0.002950274254964309</v>
+        <v>0.01051951336011936</v>
       </c>
       <c r="T9">
-        <v>0.003538260157760395</v>
+        <v>0.01116788907975939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>369.913818</v>
       </c>
       <c r="I10">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J10">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N10">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O10">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P10">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q10">
-        <v>7724.037942858852</v>
+        <v>750.534914766616</v>
       </c>
       <c r="R10">
-        <v>46344.22765715312</v>
+        <v>4503.209488599696</v>
       </c>
       <c r="S10">
-        <v>0.422757875730005</v>
+        <v>0.1167585648154068</v>
       </c>
       <c r="T10">
-        <v>0.3380086547452163</v>
+        <v>0.08263669343702826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>369.913818</v>
       </c>
       <c r="I11">
-        <v>0.9194919584818978</v>
+        <v>0.9070779502807976</v>
       </c>
       <c r="J11">
-        <v>0.9337412077596615</v>
+        <v>0.9216678284629306</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.718766</v>
+        <v>0.06689266666666667</v>
       </c>
       <c r="N11">
-        <v>8.156298</v>
+        <v>0.200678</v>
       </c>
       <c r="O11">
-        <v>0.01995494352567695</v>
+        <v>0.001414591508805173</v>
       </c>
       <c r="P11">
-        <v>0.0235667277976885</v>
+        <v>0.001478007612330618</v>
       </c>
       <c r="Q11">
-        <v>335.236370436196</v>
+        <v>8.248173907622666</v>
       </c>
       <c r="R11">
-        <v>3017.127333925764</v>
+        <v>74.233565168604</v>
       </c>
       <c r="S11">
-        <v>0.01834841010382036</v>
+        <v>0.001283144766291617</v>
       </c>
       <c r="T11">
-        <v>0.02200522487675684</v>
+        <v>0.001362232066508442</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H12">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I12">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J12">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.07563766666667</v>
+        <v>32.21373866666666</v>
       </c>
       <c r="N12">
-        <v>186.226913</v>
+        <v>96.641216</v>
       </c>
       <c r="O12">
-        <v>0.4556169394345516</v>
+        <v>0.6812298485843321</v>
       </c>
       <c r="P12">
-        <v>0.53808222397892</v>
+        <v>0.7117693664123</v>
       </c>
       <c r="Q12">
-        <v>381.1002794949523</v>
+        <v>0.7392408749226665</v>
       </c>
       <c r="R12">
-        <v>2286.601676969714</v>
+        <v>6.653167874304001</v>
       </c>
       <c r="S12">
-        <v>0.02085866819807016</v>
+        <v>0.0001150015834182687</v>
       </c>
       <c r="T12">
-        <v>0.01667718280879355</v>
+        <v>0.000122089766289089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H13">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I13">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J13">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.115256</v>
       </c>
       <c r="O13">
-        <v>0.06144619962548196</v>
+        <v>0.1770389772624213</v>
       </c>
       <c r="P13">
-        <v>0.07256777544435759</v>
+        <v>0.184975630381169</v>
       </c>
       <c r="Q13">
-        <v>51.39660496432801</v>
+        <v>0.192114964896</v>
       </c>
       <c r="R13">
-        <v>308.379629785968</v>
+        <v>1.729034684064</v>
       </c>
       <c r="S13">
-        <v>0.002813077783304021</v>
+        <v>2.988677427191287E-05</v>
       </c>
       <c r="T13">
-        <v>0.002249147069315643</v>
+        <v>3.172886126899147E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H14">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I14">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J14">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4371553333333333</v>
+        <v>0.5484013333333334</v>
       </c>
       <c r="N14">
-        <v>1.311466</v>
+        <v>1.645204</v>
       </c>
       <c r="O14">
-        <v>0.003208591687778628</v>
+        <v>0.01159714372603029</v>
       </c>
       <c r="P14">
-        <v>0.003789337054374833</v>
+        <v>0.01211704340205096</v>
       </c>
       <c r="Q14">
-        <v>2.683822929224667</v>
+        <v>0.01258471379733334</v>
       </c>
       <c r="R14">
-        <v>16.102937575348</v>
+        <v>0.113262424176</v>
       </c>
       <c r="S14">
-        <v>0.0001468930226376586</v>
+        <v>1.957767843546892E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001174457433524511</v>
+        <v>2.07843589072673E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.139289</v>
+        <v>0.022948</v>
       </c>
       <c r="H15">
-        <v>12.278578</v>
+        <v>0.068844</v>
       </c>
       <c r="I15">
-        <v>0.04578115164892033</v>
+        <v>0.0001688146572808784</v>
       </c>
       <c r="J15">
-        <v>0.03099374420041592</v>
+        <v>0.0001715299534517578</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.6419255</v>
+        <v>6.086836</v>
       </c>
       <c r="N15">
-        <v>125.283851</v>
+        <v>12.173672</v>
       </c>
       <c r="O15">
-        <v>0.4597733257265108</v>
+        <v>0.1287194389184112</v>
       </c>
       <c r="P15">
-        <v>0.3619939357246589</v>
+        <v>0.08965995219214913</v>
       </c>
       <c r="Q15">
-        <v>384.5768841609695</v>
+        <v>0.139680712528</v>
       </c>
       <c r="R15">
-        <v>1538.307536643878</v>
+        <v>0.838084275168</v>
       </c>
       <c r="S15">
-        <v>0.02104895234921383</v>
+        <v>2.172972796639855E-05</v>
       </c>
       <c r="T15">
-        <v>0.01121954744595188</v>
+        <v>1.537936742600617E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.022948</v>
+      </c>
+      <c r="H16">
+        <v>0.068844</v>
+      </c>
+      <c r="I16">
+        <v>0.0001688146572808784</v>
+      </c>
+      <c r="J16">
+        <v>0.0001715299534517578</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06689266666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.200678</v>
+      </c>
+      <c r="O16">
+        <v>0.001414591508805173</v>
+      </c>
+      <c r="P16">
+        <v>0.001478007612330618</v>
+      </c>
+      <c r="Q16">
+        <v>0.001535052914666667</v>
+      </c>
+      <c r="R16">
+        <v>0.013815476232</v>
+      </c>
+      <c r="S16">
+        <v>2.38803780751386E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.535225769444146E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.455549</v>
+      </c>
+      <c r="H17">
+        <v>12.911098</v>
+      </c>
+      <c r="I17">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J17">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>32.21373866666666</v>
+      </c>
+      <c r="N17">
+        <v>96.641216</v>
+      </c>
+      <c r="O17">
+        <v>0.6812298485843321</v>
+      </c>
+      <c r="P17">
+        <v>0.7117693664123</v>
+      </c>
+      <c r="Q17">
+        <v>207.9573684358613</v>
+      </c>
+      <c r="R17">
+        <v>1247.744210615168</v>
+      </c>
+      <c r="S17">
+        <v>0.03235133156851234</v>
+      </c>
+      <c r="T17">
+        <v>0.02289688189755859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.455549</v>
+      </c>
+      <c r="H18">
+        <v>12.911098</v>
+      </c>
+      <c r="I18">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J18">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.371752000000001</v>
+      </c>
+      <c r="N18">
+        <v>25.115256</v>
+      </c>
+      <c r="O18">
+        <v>0.1770389772624213</v>
+      </c>
+      <c r="P18">
+        <v>0.184975630381169</v>
+      </c>
+      <c r="Q18">
+        <v>54.044255251848</v>
+      </c>
+      <c r="R18">
+        <v>324.265531511088</v>
+      </c>
+      <c r="S18">
+        <v>0.008407509838080567</v>
+      </c>
+      <c r="T18">
+        <v>0.005950474075770631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.455549</v>
+      </c>
+      <c r="H19">
+        <v>12.911098</v>
+      </c>
+      <c r="I19">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J19">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5484013333333334</v>
+      </c>
+      <c r="N19">
+        <v>1.645204</v>
+      </c>
+      <c r="O19">
+        <v>0.01159714372603029</v>
+      </c>
+      <c r="P19">
+        <v>0.01211704340205096</v>
+      </c>
+      <c r="Q19">
+        <v>3.540231678998667</v>
+      </c>
+      <c r="R19">
+        <v>21.241390073992</v>
+      </c>
+      <c r="S19">
+        <v>0.0005507436920272484</v>
+      </c>
+      <c r="T19">
+        <v>0.0003897927121011287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.455549</v>
+      </c>
+      <c r="H20">
+        <v>12.911098</v>
+      </c>
+      <c r="I20">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J20">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.086836</v>
+      </c>
+      <c r="N20">
+        <v>12.173672</v>
+      </c>
+      <c r="O20">
+        <v>0.1287194389184112</v>
+      </c>
+      <c r="P20">
+        <v>0.08965995219214913</v>
+      </c>
+      <c r="Q20">
+        <v>39.29386805296399</v>
+      </c>
+      <c r="R20">
+        <v>157.175472211856</v>
+      </c>
+      <c r="S20">
+        <v>0.006112834392703339</v>
+      </c>
+      <c r="T20">
+        <v>0.002884267619766042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6.139289</v>
-      </c>
-      <c r="H16">
-        <v>12.278578</v>
-      </c>
-      <c r="I16">
-        <v>0.04578115164892033</v>
-      </c>
-      <c r="J16">
-        <v>0.03099374420041592</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.718766</v>
-      </c>
-      <c r="N16">
-        <v>8.156298</v>
-      </c>
-      <c r="O16">
-        <v>0.01995494352567695</v>
-      </c>
-      <c r="P16">
-        <v>0.0235667277976885</v>
-      </c>
-      <c r="Q16">
-        <v>16.691290197374</v>
-      </c>
-      <c r="R16">
-        <v>100.147741184244</v>
-      </c>
-      <c r="S16">
-        <v>0.0009135602956946573</v>
-      </c>
-      <c r="T16">
-        <v>0.0007304211330023885</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.455549</v>
+      </c>
+      <c r="H21">
+        <v>12.911098</v>
+      </c>
+      <c r="I21">
+        <v>0.04748959787323154</v>
+      </c>
+      <c r="J21">
+        <v>0.03216896227632158</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.06689266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.200678</v>
+      </c>
+      <c r="O21">
+        <v>0.001414591508805173</v>
+      </c>
+      <c r="P21">
+        <v>0.001478007612330618</v>
+      </c>
+      <c r="Q21">
+        <v>0.4318288874073333</v>
+      </c>
+      <c r="R21">
+        <v>2.590973324444</v>
+      </c>
+      <c r="S21">
+        <v>6.717838190804553E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.754597112517978E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.445693</v>
+      </c>
+      <c r="I22">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J22">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>32.21373866666666</v>
+      </c>
+      <c r="N22">
+        <v>96.641216</v>
+      </c>
+      <c r="O22">
+        <v>0.6812298485843321</v>
+      </c>
+      <c r="P22">
+        <v>0.7117693664123</v>
+      </c>
+      <c r="Q22">
+        <v>4.785812609187555</v>
+      </c>
+      <c r="R22">
+        <v>43.072313482688</v>
+      </c>
+      <c r="S22">
+        <v>0.000744515146104794</v>
+      </c>
+      <c r="T22">
+        <v>0.0007904037273645186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.445693</v>
+      </c>
+      <c r="I23">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J23">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.371752000000001</v>
+      </c>
+      <c r="N23">
+        <v>25.115256</v>
+      </c>
+      <c r="O23">
+        <v>0.1770389772624213</v>
+      </c>
+      <c r="P23">
+        <v>0.184975630381169</v>
+      </c>
+      <c r="Q23">
+        <v>1.243743754712</v>
+      </c>
+      <c r="R23">
+        <v>11.193693792408</v>
+      </c>
+      <c r="S23">
+        <v>0.0001934856499560116</v>
+      </c>
+      <c r="T23">
+        <v>0.0002054112394044596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.445693</v>
+      </c>
+      <c r="I24">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J24">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5484013333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.645204</v>
+      </c>
+      <c r="O24">
+        <v>0.01159714372603029</v>
+      </c>
+      <c r="P24">
+        <v>0.01211704340205096</v>
+      </c>
+      <c r="Q24">
+        <v>0.08147287848577779</v>
+      </c>
+      <c r="R24">
+        <v>0.7332559063720001</v>
+      </c>
+      <c r="S24">
+        <v>1.267450211338599E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.345570169434763E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.445693</v>
+      </c>
+      <c r="I25">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J25">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.086836</v>
+      </c>
+      <c r="N25">
+        <v>12.173672</v>
+      </c>
+      <c r="O25">
+        <v>0.1287194389184112</v>
+      </c>
+      <c r="P25">
+        <v>0.08965995219214913</v>
+      </c>
+      <c r="Q25">
+        <v>0.9042867324493333</v>
+      </c>
+      <c r="R25">
+        <v>5.425720394696</v>
+      </c>
+      <c r="S25">
+        <v>0.0001406772942671557</v>
+      </c>
+      <c r="T25">
+        <v>9.956534202252872E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1485643333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.445693</v>
+      </c>
+      <c r="I26">
+        <v>0.001092898597517381</v>
+      </c>
+      <c r="J26">
+        <v>0.001110477304395071</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.06689266666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.200678</v>
+      </c>
+      <c r="O26">
+        <v>0.001414591508805173</v>
+      </c>
+      <c r="P26">
+        <v>0.001478007612330618</v>
+      </c>
+      <c r="Q26">
+        <v>0.009937864428222223</v>
+      </c>
+      <c r="R26">
+        <v>0.08944077985399999</v>
+      </c>
+      <c r="S26">
+        <v>1.546005076033169E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.6412939092163E-06</v>
       </c>
     </row>
   </sheetData>
